--- a/GeneticProgrammingPortfolio/experiment-data/2 - stats/70/14-29-33 - no avg, min, or max/data-full.xlsx
+++ b/GeneticProgrammingPortfolio/experiment-data/2 - stats/70/14-29-33 - no avg, min, or max/data-full.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -7374,6 +7374,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Day Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7439,6 +7494,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Normalized DJIA Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9863,8 +9973,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10615,7 +10731,13 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10633,6 +10755,41 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="149"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="0">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-285C-49F9-8BDE-80546385B346}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>Data!$I$543:$I$775</c:f>
@@ -11356,20 +11513,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:smooth val="0"/>
         <c:axId val="423455440"/>
         <c:axId val="423454456"/>
@@ -11381,6 +11524,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Day Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11448,6 +11646,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Normalized DJIA Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12692,7 +12945,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8660230" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12719,7 +12972,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8660230" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13041,8 +13294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M775"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="S552" sqref="S552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
